--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -512,10 +512,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -524,6 +524,7 @@
     <col width="28.83203125" customWidth="1" min="2" max="2"/>
     <col width="22.5" customWidth="1" min="3" max="3"/>
     <col width="38.33203125" customWidth="1" min="4" max="4"/>
+    <col width="21.33203125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -547,6 +548,11 @@
           <t>SSL error</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>expiration_status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -569,6 +575,7 @@
           <t>verify error:num=18:self-signed certificate</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -591,6 +598,7 @@
           <t>verify error:num=19:self-signed certificate in certificate chain</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -613,6 +621,7 @@
           <t>verify error:num=20:unable to get local issuer certificate; verify error:num=21:unable to verify the first certificate</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -635,6 +644,11 @@
           <t>verify error:num=10:certificate has expired</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>❌ EXPIRED 3750 days ago</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -653,6 +667,11 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>⚠️ Expires in 29 days</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -671,6 +690,11 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>⚠️ Expires in 29 days</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -689,6 +713,11 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>⚠️ Expires in 29 days</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -707,6 +736,7 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -725,6 +755,7 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -742,11 +773,8 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>verify error:num=20:unable to get local issuer certificate; verify error:num=21:unable to verify the first certificate</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -765,6 +793,7 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -783,6 +812,7 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -801,6 +831,7 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -819,6 +850,7 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -837,6 +869,7 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -855,6 +888,7 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -873,6 +907,7 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -891,6 +926,7 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -909,6 +945,7 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -927,6 +964,7 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -945,6 +983,7 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -963,6 +1002,7 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -981,6 +1021,7 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -999,6 +1040,7 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1017,6 +1059,7 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1035,6 +1078,7 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1053,6 +1097,7 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1071,6 +1116,7 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1089,6 +1135,7 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1107,6 +1154,7 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1125,6 +1173,7 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1143,6 +1192,7 @@
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1161,6 +1211,7 @@
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1179,6 +1230,7 @@
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1197,6 +1249,7 @@
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1215,6 +1268,7 @@
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1233,6 +1287,7 @@
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1251,6 +1306,7 @@
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1269,6 +1325,7 @@
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1287,6 +1344,7 @@
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1305,6 +1363,7 @@
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1323,6 +1382,7 @@
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1341,6 +1401,7 @@
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1359,6 +1420,7 @@
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1377,6 +1439,7 @@
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1395,6 +1458,7 @@
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1413,6 +1477,7 @@
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1431,6 +1496,7 @@
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1449,6 +1515,7 @@
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1467,6 +1534,7 @@
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1485,6 +1553,7 @@
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1503,6 +1572,7 @@
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1521,6 +1591,7 @@
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1539,6 +1610,7 @@
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1557,6 +1629,7 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1575,6 +1648,7 @@
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1593,6 +1667,7 @@
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1611,6 +1686,7 @@
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1629,6 +1705,7 @@
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1647,6 +1724,7 @@
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1665,6 +1743,7 @@
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1683,6 +1762,7 @@
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1701,6 +1781,7 @@
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1719,6 +1800,7 @@
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1737,6 +1819,7 @@
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3750 days ago</t>
+          <t>❌ EXPIRED 3753 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 29 days</t>
+          <t>⚠️ Expires in 26 days</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 29 days</t>
+          <t>⚠️ Expires in 26 days</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 29 days</t>
+          <t>⚠️ Expires in 26 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3753 days ago</t>
+          <t>❌ EXPIRED 3754 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 26 days</t>
+          <t>⚠️ Expires in 25 days</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 26 days</t>
+          <t>⚠️ Expires in 25 days</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 26 days</t>
+          <t>⚠️ Expires in 25 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-07-15</t>
+          <t>2027-07-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-07-15</t>
+          <t>2027-07-22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3754 days ago</t>
+          <t>❌ EXPIRED 3755 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 25 days</t>
+          <t>⚠️ Expires in 24 days</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 25 days</t>
+          <t>⚠️ Expires in 24 days</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 25 days</t>
+          <t>⚠️ Expires in 24 days</t>
         </is>
       </c>
     </row>
@@ -860,12 +860,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>DNS resolution failed</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3755 days ago</t>
+          <t>❌ EXPIRED 3756 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 24 days</t>
+          <t>⚠️ Expires in 23 days</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 24 days</t>
+          <t>⚠️ Expires in 23 days</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 24 days</t>
+          <t>⚠️ Expires in 23 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3756 days ago</t>
+          <t>❌ EXPIRED 3757 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 23 days</t>
+          <t>⚠️ Expires in 22 days</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 23 days</t>
+          <t>⚠️ Expires in 22 days</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 23 days</t>
+          <t>⚠️ Expires in 22 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3757 days ago</t>
+          <t>❌ EXPIRED 3758 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 22 days</t>
+          <t>⚠️ Expires in 21 days</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 22 days</t>
+          <t>⚠️ Expires in 21 days</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 22 days</t>
+          <t>⚠️ Expires in 21 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3758 days ago</t>
+          <t>❌ EXPIRED 3759 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 21 days</t>
+          <t>⚠️ Expires in 20 days</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 21 days</t>
+          <t>⚠️ Expires in 20 days</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 21 days</t>
+          <t>⚠️ Expires in 20 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3759 days ago</t>
+          <t>❌ EXPIRED 3760 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 20 days</t>
+          <t>⚠️ Expires in 19 days</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 20 days</t>
+          <t>⚠️ Expires in 19 days</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 20 days</t>
+          <t>⚠️ Expires in 19 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3760 days ago</t>
+          <t>❌ EXPIRED 3761 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 19 days</t>
+          <t>⚠️ Expires in 18 days</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -690,11 +690,7 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>⚠️ Expires in 19 days</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -715,7 +711,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 19 days</t>
+          <t>⚠️ Expires in 18 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-07-22</t>
+          <t>2027-07-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-07-22</t>
+          <t>2027-07-29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3761 days ago</t>
+          <t>❌ EXPIRED 3762 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 18 days</t>
+          <t>⚠️ Expires in 17 days</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 18 days</t>
+          <t>⚠️ Expires in 17 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3762 days ago</t>
+          <t>❌ EXPIRED 3763 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 17 days</t>
+          <t>⚠️ Expires in 16 days</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 17 days</t>
+          <t>⚠️ Expires in 16 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3763 days ago</t>
+          <t>❌ EXPIRED 3764 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 16 days</t>
+          <t>⚠️ Expires in 15 days</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 16 days</t>
+          <t>⚠️ Expires in 15 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3764 days ago</t>
+          <t>❌ EXPIRED 3765 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 15 days</t>
+          <t>⚠️ Expires in 14 days</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 15 days</t>
+          <t>⚠️ Expires in 14 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3765 days ago</t>
+          <t>❌ EXPIRED 3766 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 14 days</t>
+          <t>⚠️ Expires in 13 days</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 14 days</t>
+          <t>⚠️ Expires in 13 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3766 days ago</t>
+          <t>❌ EXPIRED 3767 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 13 days</t>
+          <t>⚠️ Expires in 12 days</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 13 days</t>
+          <t>⚠️ Expires in 12 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3767 days ago</t>
+          <t>❌ EXPIRED 3768 days ago</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 12 days</t>
+          <t>⚠️ Expires in 11 days</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 12 days</t>
+          <t>⚠️ Expires in 11 days</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,11 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>⚠️ Expires in 30 days</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-07-29</t>
+          <t>2027-08-05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-07-29</t>
+          <t>2027-08-05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3768 days ago</t>
+          <t>❌ EXPIRED 3769 days ago</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -667,11 +667,7 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>⚠️ Expires in 11 days</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -700,7 +696,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -709,11 +705,7 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>⚠️ Expires in 11 days</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -734,7 +726,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 30 days</t>
+          <t>⚠️ Expires in 29 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3769 days ago</t>
+          <t>❌ EXPIRED 3770 days ago</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 29 days</t>
+          <t>⚠️ Expires in 28 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3770 days ago</t>
+          <t>❌ EXPIRED 3771 days ago</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 28 days</t>
+          <t>⚠️ Expires in 27 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3771 days ago</t>
+          <t>❌ EXPIRED 3772 days ago</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 27 days</t>
+          <t>⚠️ Expires in 26 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3772 days ago</t>
+          <t>❌ EXPIRED 3773 days ago</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 26 days</t>
+          <t>⚠️ Expires in 25 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3773 days ago</t>
+          <t>❌ EXPIRED 3774 days ago</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 25 days</t>
+          <t>⚠️ Expires in 24 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3774 days ago</t>
+          <t>❌ EXPIRED 3775 days ago</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 24 days</t>
+          <t>⚠️ Expires in 23 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-08-05</t>
+          <t>2027-08-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-08-05</t>
+          <t>2027-08-12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3775 days ago</t>
+          <t>❌ EXPIRED 3776 days ago</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 23 days</t>
+          <t>⚠️ Expires in 22 days</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,11 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>⚠️ Expires in 30 days</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3776 days ago</t>
+          <t>❌ EXPIRED 3777 days ago</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,11 +724,7 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>⚠️ Expires in 22 days</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -738,7 +734,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -747,11 +743,7 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>⚠️ Expires in 30 days</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3777 days ago</t>
+          <t>❌ EXPIRED 3778 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3778 days ago</t>
+          <t>❌ EXPIRED 3779 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3779 days ago</t>
+          <t>❌ EXPIRED 3780 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3780 days ago</t>
+          <t>❌ EXPIRED 3781 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3781 days ago</t>
+          <t>❌ EXPIRED 3782 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-08-12</t>
+          <t>2027-08-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-08-12</t>
+          <t>2027-08-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3782 days ago</t>
+          <t>❌ EXPIRED 3783 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3783 days ago</t>
+          <t>❌ EXPIRED 3784 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3784 days ago</t>
+          <t>❌ EXPIRED 3785 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3785 days ago</t>
+          <t>❌ EXPIRED 3786 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3786 days ago</t>
+          <t>❌ EXPIRED 3787 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3787 days ago</t>
+          <t>❌ EXPIRED 3788 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3788 days ago</t>
+          <t>❌ EXPIRED 3789 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-08-19</t>
+          <t>2027-08-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-08-19</t>
+          <t>2027-08-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3789 days ago</t>
+          <t>❌ EXPIRED 3790 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3790 days ago</t>
+          <t>❌ EXPIRED 3791 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3791 days ago</t>
+          <t>❌ EXPIRED 3792 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3792 days ago</t>
+          <t>❌ EXPIRED 3793 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3793 days ago</t>
+          <t>❌ EXPIRED 3794 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3794 days ago</t>
+          <t>❌ EXPIRED 3795 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3795 days ago</t>
+          <t>❌ EXPIRED 3796 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-08-26</t>
+          <t>2027-09-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-08-26</t>
+          <t>2027-09-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3796 days ago</t>
+          <t>❌ EXPIRED 3797 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3797 days ago</t>
+          <t>❌ EXPIRED 3798 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3798 days ago</t>
+          <t>❌ EXPIRED 3799 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3799 days ago</t>
+          <t>❌ EXPIRED 3800 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3800 days ago</t>
+          <t>❌ EXPIRED 3801 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3801 days ago</t>
+          <t>❌ EXPIRED 3802 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3802 days ago</t>
+          <t>❌ EXPIRED 3803 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-09-02</t>
+          <t>2027-09-09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-09-02</t>
+          <t>2027-09-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3803 days ago</t>
+          <t>❌ EXPIRED 3804 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3804 days ago</t>
+          <t>❌ EXPIRED 3805 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3805 days ago</t>
+          <t>❌ EXPIRED 3806 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -621,7 +621,11 @@
           <t>verify error:num=20:unable to get local issuer certificate; verify error:num=21:unable to verify the first certificate</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>⚠️ Expires in 30 days</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -646,7 +650,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3806 days ago</t>
+          <t>❌ EXPIRED 3807 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -623,7 +623,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 30 days</t>
+          <t>⚠️ Expires in 29 days</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3807 days ago</t>
+          <t>❌ EXPIRED 3808 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -623,7 +623,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 29 days</t>
+          <t>⚠️ Expires in 28 days</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3808 days ago</t>
+          <t>❌ EXPIRED 3809 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -623,7 +623,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 28 days</t>
+          <t>⚠️ Expires in 27 days</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3809 days ago</t>
+          <t>❌ EXPIRED 3810 days ago</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,11 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>⚠️ Expires in 30 days</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-09-09</t>
+          <t>2027-09-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-09-09</t>
+          <t>2027-09-16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -621,11 +621,7 @@
           <t>verify error:num=20:unable to get local issuer certificate; verify error:num=21:unable to verify the first certificate</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>⚠️ Expires in 27 days</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -650,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3810 days ago</t>
+          <t>❌ EXPIRED 3811 days ago</t>
         </is>
       </c>
     </row>
@@ -787,7 +783,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 30 days</t>
+          <t>⚠️ Expires in 29 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3811 days ago</t>
+          <t>❌ EXPIRED 3812 days ago</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>⚠️ Expires in 29 days</t>
+          <t>⚠️ Expires in 28 days</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3812 days ago</t>
+          <t>❌ EXPIRED 3813 days ago</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -781,11 +781,7 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>⚠️ Expires in 28 days</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3813 days ago</t>
+          <t>❌ EXPIRED 3814 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3814 days ago</t>
+          <t>❌ EXPIRED 3815 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3815 days ago</t>
+          <t>❌ EXPIRED 3816 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3816 days ago</t>
+          <t>❌ EXPIRED 3817 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-09-16</t>
+          <t>2027-09-23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-09-16</t>
+          <t>2027-09-23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3817 days ago</t>
+          <t>❌ EXPIRED 3818 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3818 days ago</t>
+          <t>❌ EXPIRED 3819 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3819 days ago</t>
+          <t>❌ EXPIRED 3820 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3820 days ago</t>
+          <t>❌ EXPIRED 3821 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3821 days ago</t>
+          <t>❌ EXPIRED 3822 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3822 days ago</t>
+          <t>❌ EXPIRED 3823 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3823 days ago</t>
+          <t>❌ EXPIRED 3824 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-09-23</t>
+          <t>2027-09-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-09-23</t>
+          <t>2027-09-30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3824 days ago</t>
+          <t>❌ EXPIRED 3825 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3825 days ago</t>
+          <t>❌ EXPIRED 3826 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3826 days ago</t>
+          <t>❌ EXPIRED 3827 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3827 days ago</t>
+          <t>❌ EXPIRED 3828 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3828 days ago</t>
+          <t>❌ EXPIRED 3829 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3829 days ago</t>
+          <t>❌ EXPIRED 3830 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3830 days ago</t>
+          <t>❌ EXPIRED 3831 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-09-30</t>
+          <t>2027-10-07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-09-30</t>
+          <t>2027-10-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3831 days ago</t>
+          <t>❌ EXPIRED 3832 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3832 days ago</t>
+          <t>❌ EXPIRED 3833 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3833 days ago</t>
+          <t>❌ EXPIRED 3834 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3834 days ago</t>
+          <t>❌ EXPIRED 3835 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3835 days ago</t>
+          <t>❌ EXPIRED 3836 days ago</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,11 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>⚠️ Expires in 30 days</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3836 days ago</t>
+          <t>❌ EXPIRED 3837 days ago</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -743,11 +743,7 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>⚠️ Expires in 30 days</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3837 days ago</t>
+          <t>❌ EXPIRED 3838 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2027-10-07</t>
+          <t>2027-10-14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2027-10-07</t>
+          <t>2027-10-14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3838 days ago</t>
+          <t>❌ EXPIRED 3839 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3839 days ago</t>
+          <t>❌ EXPIRED 3840 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3840 days ago</t>
+          <t>❌ EXPIRED 3841 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3841 days ago</t>
+          <t>❌ EXPIRED 3842 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3842 days ago</t>
+          <t>❌ EXPIRED 3843 days ago</t>
         </is>
       </c>
     </row>

--- a/certificati_iso_date_with_status.xlsx
+++ b/certificati_iso_date_with_status.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌ EXPIRED 3843 days ago</t>
+          <t>❌ EXPIRED 3844 days ago</t>
         </is>
       </c>
     </row>
